--- a/biology/Zoologie/Le_Dog_Show/Le_Dog_Show.xlsx
+++ b/biology/Zoologie/Le_Dog_Show/Le_Dog_Show.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Dog Show ou Chiens sous enquête au Québec (Show Dogs) est un film américain réalisé par Raja Gosnell, sorti en 2018.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Max, un chien policier, doit s'infiltrer dans un concours canin.
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Le Dog Show
 Titre original : Show Dogs
@@ -587,7 +603,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Will Arnett (VQ : Daniel Picard) : Frank
 Natasha Lyonne (VF : Guylène Ouvrard ; VQ : Annie Girard) : Mattie
@@ -603,7 +621,7 @@
 Omar Chaparro (VF : Thierry Gondet) : Señor Gabriel
 Anders Holm, Kate Micucci (VF : Valérie Nosrée), Blake Anderson : les pigeons
 RuPaul (VQ : François Sasseville) : Persephone
- Source et légende : version française (VF) sur RS Doublage[1] et version québécoise sur Doublage Québec[2]</t>
+ Source et légende : version française (VF) sur RS Doublage et version québécoise sur Doublage Québec</t>
         </is>
       </c>
     </row>
@@ -631,9 +649,11 @@
           <t>Accueil</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le film a reçu un accueil défavorable de la critique. Il obtient un score moyen de 31 % sur Metacritic[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film a reçu un accueil défavorable de la critique. Il obtient un score moyen de 31 % sur Metacritic.
 </t>
         </is>
       </c>
@@ -662,9 +682,11 @@
           <t>Controverse</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le film a fait l'objet d'un remontage pour notamment retirer des scènes dans lesquels un juge du concours canin touche les parties génitales d'un chien sans son consentement (les chiens étant dans le film des êtres conscients capables de s'exprimer comme des humains)[4].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film a fait l'objet d'un remontage pour notamment retirer des scènes dans lesquels un juge du concours canin touche les parties génitales d'un chien sans son consentement (les chiens étant dans le film des êtres conscients capables de s'exprimer comme des humains).
 </t>
         </is>
       </c>
